--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail1 Features.xlsx
@@ -3735,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.211130974646759</v>
+        <v>1.184957166275947</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.360925114529875</v>
@@ -3824,7 +3824,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.209987025841331</v>
+        <v>1.182892024818076</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.183666726972868</v>
@@ -3913,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.217135273985424</v>
+        <v>1.193536561035104</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.177256376585857</v>
@@ -4002,7 +4002,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.217926618083914</v>
+        <v>1.195205865580144</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.34618684360758</v>
@@ -4091,7 +4091,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.217137746766734</v>
+        <v>1.193686306697227</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.112705739887168</v>
@@ -4180,7 +4180,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.230349846888646</v>
+        <v>1.212901408142212</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.148222752445448</v>
@@ -4269,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.240004048568723</v>
+        <v>1.222870763500264</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.272285108990569</v>
@@ -4358,7 +4358,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.237579210036924</v>
+        <v>1.222546672988656</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.46796350039503</v>
@@ -4447,7 +4447,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.231303979747781</v>
+        <v>1.213304782864366</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.382592599380456</v>
@@ -4536,7 +4536,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.226249504018781</v>
+        <v>1.207373462608298</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.236414498767805</v>
@@ -4625,7 +4625,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.232048208447114</v>
+        <v>1.211740030197042</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.226231695617501</v>
@@ -4714,7 +4714,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.218291647842931</v>
+        <v>1.199790704327719</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.212784093748585</v>
@@ -4803,7 +4803,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.223740785367307</v>
+        <v>1.207954612290409</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.289474558949506</v>
@@ -4892,7 +4892,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.215012704317562</v>
+        <v>1.198293792916259</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.239671407709606</v>
@@ -4981,7 +4981,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.228573817964172</v>
+        <v>1.214296695366499</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.235959505469995</v>
@@ -5070,7 +5070,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.249712766633741</v>
+        <v>1.235526928120426</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.205143534575686</v>
@@ -5159,7 +5159,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.255917204454175</v>
+        <v>1.243029045912803</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.166441667180813</v>
@@ -5248,7 +5248,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.258410034964614</v>
+        <v>1.242348835190076</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.120754232985056</v>
@@ -5337,7 +5337,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.263771367572137</v>
+        <v>1.249069171352444</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.091097143401291</v>
@@ -5426,7 +5426,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.273046680011843</v>
+        <v>1.254133227988248</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.150366312750431</v>
@@ -5515,7 +5515,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.270484374230042</v>
+        <v>1.254334628857855</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.169166320409407</v>
@@ -5604,7 +5604,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.262101723668009</v>
+        <v>1.243838878305823</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.097074081535261</v>
@@ -5693,7 +5693,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.271897635157431</v>
+        <v>1.25436575764413</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.102476699887426</v>
@@ -5782,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.284028510424475</v>
+        <v>1.268064581278372</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.145773706122826</v>
@@ -5871,7 +5871,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289704572831395</v>
+        <v>1.273893617188804</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.182409160474577</v>
@@ -5960,7 +5960,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.311543794655061</v>
+        <v>1.297768709330689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.088099107292551</v>
@@ -6049,7 +6049,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.304198755750822</v>
+        <v>1.285414123745062</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.243590451746296</v>
@@ -6138,7 +6138,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.287264168888954</v>
+        <v>1.2681571812318</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.193158088088723</v>
@@ -6227,7 +6227,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.291034895023612</v>
+        <v>1.272916517397203</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.161607648515643</v>
@@ -6316,7 +6316,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.274098380369921</v>
+        <v>1.252955952711341</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.209443045655341</v>
@@ -6405,7 +6405,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.265430265964394</v>
+        <v>1.245413222844082</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.20239486208792</v>
@@ -6494,7 +6494,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.254913716952977</v>
+        <v>1.234746669013716</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.198967649174747</v>
@@ -6583,7 +6583,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.25219974327589</v>
+        <v>1.232022454124078</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.343158655505139</v>
@@ -6672,7 +6672,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.252245516838616</v>
+        <v>1.23095996585049</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.297532844714464</v>
@@ -6761,7 +6761,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.256338810827375</v>
+        <v>1.236891100695012</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.411446099836885</v>
@@ -6850,7 +6850,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.258117265469509</v>
+        <v>1.234184980451817</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.249894650030914</v>
@@ -6939,7 +6939,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.240452974554324</v>
+        <v>1.221703596116504</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.313312940935524</v>
@@ -7028,7 +7028,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.232541490589493</v>
+        <v>1.214776939217524</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.315089076308388</v>
@@ -7117,7 +7117,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.226991316173524</v>
+        <v>1.212108327262588</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.2696514020715</v>
@@ -7206,7 +7206,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.228527380530476</v>
+        <v>1.213741235357819</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.276952275891992</v>
@@ -7295,7 +7295,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.234656847974491</v>
+        <v>1.221587933936238</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.295480740971101</v>
@@ -7384,7 +7384,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.237745749778958</v>
+        <v>1.224350787963398</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.254136813081384</v>
@@ -7670,7 +7670,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.569794585455804</v>
+        <v>1.584232177606626</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.933289400562651</v>
@@ -7759,7 +7759,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564855511344749</v>
+        <v>1.579483721882137</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.442899081135254</v>
@@ -7848,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56938538053053</v>
+        <v>1.579082756037989</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.680113646281077</v>
@@ -7937,7 +7937,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566673739311871</v>
+        <v>1.572124279497163</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.192391452653358</v>
@@ -8026,7 +8026,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.555884566550392</v>
+        <v>1.564139610681699</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.838676912590353</v>
@@ -8115,7 +8115,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.567698863334629</v>
+        <v>1.576401855891653</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.963019710148789</v>
@@ -8204,7 +8204,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.573777772274161</v>
+        <v>1.584269205096624</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.98337892345535</v>
@@ -8293,7 +8293,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.581590926859668</v>
+        <v>1.591909221114772</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.154264386949825</v>
@@ -8382,7 +8382,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584167423088901</v>
+        <v>1.59209438972865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.383234471211613</v>
@@ -8471,7 +8471,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.587778271403513</v>
+        <v>1.59817247030202</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.086435905164156</v>
@@ -8560,7 +8560,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594278781011235</v>
+        <v>1.610087118382709</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.114950134084798</v>
@@ -8649,7 +8649,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.586175217598959</v>
+        <v>1.602545377095607</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.901714334922041</v>
@@ -8738,7 +8738,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597640918219499</v>
+        <v>1.611365667476818</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.240430515956403</v>
@@ -8827,7 +8827,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.59346893343618</v>
+        <v>1.613289137409551</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.091565523488065</v>
@@ -8916,7 +8916,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600432070958489</v>
+        <v>1.618269203798174</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.082505582911912</v>
@@ -9005,7 +9005,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.605464712237691</v>
+        <v>1.620893774605884</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.929760625356366</v>
@@ -9094,7 +9094,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604858566931633</v>
+        <v>1.618386186186212</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.057078187661996</v>
@@ -9183,7 +9183,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602416014297323</v>
+        <v>1.618842627692046</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.241840072222455</v>
@@ -9272,7 +9272,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.55096218806753</v>
+        <v>1.569652155098202</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.171808061879418</v>
@@ -9361,7 +9361,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550693168228914</v>
+        <v>1.566829830906788</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.18523056213662</v>
@@ -9450,7 +9450,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.544234272897775</v>
+        <v>1.564129408658732</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.300348069335028</v>
@@ -9539,7 +9539,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535197490110475</v>
+        <v>1.553650499237904</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.188261475947884</v>
@@ -9628,7 +9628,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.535905242015273</v>
+        <v>1.551796022764648</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.169060455953037</v>
@@ -9717,7 +9717,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.540610833513796</v>
+        <v>1.555228877610539</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.174553932166805</v>
@@ -9806,7 +9806,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.536725713667293</v>
+        <v>1.550024665397338</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.138138808452714</v>
@@ -9895,7 +9895,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.535597504348921</v>
+        <v>1.549021301049351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.241466705337451</v>
@@ -9984,7 +9984,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535731556323737</v>
+        <v>1.547133516671015</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.129086606947896</v>
@@ -10073,7 +10073,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.531618478187901</v>
+        <v>1.542673438402371</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.16807074773298</v>
@@ -10162,7 +10162,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.527820651246491</v>
+        <v>1.538206726864856</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.102361241587873</v>
@@ -10251,7 +10251,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.526558431159642</v>
+        <v>1.531804244691194</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.117157806345249</v>
@@ -10340,7 +10340,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.532885284717412</v>
+        <v>1.538522155606613</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.158521863782733</v>
@@ -10429,7 +10429,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.524887775032488</v>
+        <v>1.529408254708881</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.160420076455137</v>
@@ -10518,7 +10518,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.529564200343121</v>
+        <v>1.528815761746</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.197765018989509</v>
@@ -10607,7 +10607,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.581739064916132</v>
+        <v>1.577466019665931</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.275925020923578</v>
@@ -10696,7 +10696,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.588084644974686</v>
+        <v>1.580963540448944</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.10699524516559</v>
@@ -10785,7 +10785,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598330928374808</v>
+        <v>1.58684295938459</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.183267623008653</v>
@@ -10874,7 +10874,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.580367785651947</v>
+        <v>1.575214664763067</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.28030934931298</v>
@@ -10963,7 +10963,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.572062851718166</v>
+        <v>1.5660229305724</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.954032723143614</v>
@@ -11052,7 +11052,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.555067686908802</v>
+        <v>1.549413650856161</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.37529881598165</v>
@@ -11141,7 +11141,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557316436183144</v>
+        <v>1.547340651385234</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.426825956532452</v>
@@ -11230,7 +11230,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.563840977345252</v>
+        <v>1.553481501972828</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.607804404903018</v>
@@ -11319,7 +11319,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.554993324135628</v>
+        <v>1.546660975161172</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.384022808631639</v>
@@ -11605,7 +11605,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.559707837965339</v>
+        <v>1.522405462857056</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.676459248352003</v>
@@ -11694,7 +11694,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.547873709434753</v>
+        <v>1.51148113969948</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.729165447380939</v>
@@ -11783,7 +11783,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559769764262865</v>
+        <v>1.514687616635245</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.509968075726087</v>
@@ -11872,7 +11872,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.545279664351245</v>
+        <v>1.501900753998844</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.966517208255579</v>
@@ -11961,7 +11961,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.550028785186804</v>
+        <v>1.508116584246964</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.07361770228054</v>
@@ -12050,7 +12050,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.545553868932183</v>
+        <v>1.501934841388171</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.976543157102966</v>
@@ -12139,7 +12139,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.54837821663141</v>
+        <v>1.508414839462287</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.944440268030727</v>
@@ -12228,7 +12228,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.549721211424413</v>
+        <v>1.508398472358707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.145779813050309</v>
@@ -12317,7 +12317,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.545261447933478</v>
+        <v>1.497539691721253</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.019016340526314</v>
@@ -12406,7 +12406,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539931082388287</v>
+        <v>1.498100560145792</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.123023088750499</v>
@@ -12495,7 +12495,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.556127937132051</v>
+        <v>1.512782144324897</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.122062012834274</v>
@@ -12584,7 +12584,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.556274692533519</v>
+        <v>1.515335078102367</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.972723511312203</v>
@@ -12673,7 +12673,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.562271498587052</v>
+        <v>1.518964819060133</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.134078943836759</v>
@@ -12762,7 +12762,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.565589423569877</v>
+        <v>1.52792221788584</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.859571374023331</v>
@@ -12851,7 +12851,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55889883139862</v>
+        <v>1.527449628995049</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.10566827487938</v>
@@ -12940,7 +12940,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.580058701692953</v>
+        <v>1.546266717367444</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.254828373094944</v>
@@ -13029,7 +13029,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574152970842563</v>
+        <v>1.542583457533237</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.998089701856209</v>
@@ -13118,7 +13118,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.561051039304015</v>
+        <v>1.532204856566318</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.920002982391496</v>
@@ -13207,7 +13207,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57450110470654</v>
+        <v>1.541131632899755</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.130488301669421</v>
@@ -13296,7 +13296,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.583948718927453</v>
+        <v>1.549286336712827</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.184034437008564</v>
@@ -13385,7 +13385,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579456775962361</v>
+        <v>1.549321977731466</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.196416637280628</v>
@@ -13474,7 +13474,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.582241678151321</v>
+        <v>1.547625487037905</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.505820336618102</v>
@@ -13563,7 +13563,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.578993342483099</v>
+        <v>1.543427625438178</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.205073416116068</v>
@@ -13652,7 +13652,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.585612777807556</v>
+        <v>1.548123356204923</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.603650314514673</v>
@@ -13741,7 +13741,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.588758950691163</v>
+        <v>1.549556856947405</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.433045818861975</v>
@@ -13830,7 +13830,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.580629217617912</v>
+        <v>1.538677615432921</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.836302568851719</v>
@@ -13919,7 +13919,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.57562309030715</v>
+        <v>1.526199359469414</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.434239310032067</v>
@@ -14008,7 +14008,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.561069542704566</v>
+        <v>1.514786151910737</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.073237732850508</v>
@@ -14097,7 +14097,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.554099762078475</v>
+        <v>1.51095914581792</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.198301450875958</v>
@@ -14186,7 +14186,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.556589757185301</v>
+        <v>1.509806115246381</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.312162734256615</v>
@@ -14275,7 +14275,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561987624154514</v>
+        <v>1.515381940348067</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.030446667952615</v>
@@ -14364,7 +14364,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556193313528361</v>
+        <v>1.512079355375731</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.169036286767376</v>
@@ -14453,7 +14453,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557269819928295</v>
+        <v>1.51029087015078</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.1682123763307</v>
@@ -14542,7 +14542,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.561459900967999</v>
+        <v>1.517324006352405</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.370268209179201</v>
@@ -14631,7 +14631,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.56142935571943</v>
+        <v>1.508550430087942</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.313819012119307</v>
@@ -14720,7 +14720,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564562918176706</v>
+        <v>1.513425162882944</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.382925146614127</v>
@@ -14809,7 +14809,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.557117197197978</v>
+        <v>1.51041055470663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.19535472480518</v>
@@ -14898,7 +14898,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566396941468952</v>
+        <v>1.518836570475078</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.010932260964267</v>
@@ -14987,7 +14987,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.563701746126573</v>
+        <v>1.522583216498543</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.010815405012001</v>
@@ -15076,7 +15076,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556517505878389</v>
+        <v>1.510754095644903</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.230892355387414</v>
@@ -15165,7 +15165,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.565226453685623</v>
+        <v>1.519446690580955</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.004543488544559</v>
@@ -15254,7 +15254,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.555621524860354</v>
+        <v>1.517696312627205</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.380994563123781</v>
@@ -15540,7 +15540,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.606317945144426</v>
+        <v>1.591817648762141</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.654722678344921</v>
@@ -15629,7 +15629,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.611371281709219</v>
+        <v>1.590396667912964</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.447028742694919</v>
@@ -15718,7 +15718,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.624446225428344</v>
+        <v>1.586809285375332</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.462606970241986</v>
@@ -15807,7 +15807,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.622359101157967</v>
+        <v>1.58697343944015</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.29514585443514</v>
@@ -15896,7 +15896,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621572378155065</v>
+        <v>1.585092189398274</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.06966794574686</v>
@@ -15985,7 +15985,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.624122732166325</v>
+        <v>1.58377547274495</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.505923535992701</v>
@@ -16074,7 +16074,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.63616594036475</v>
+        <v>1.594518664255264</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.612153730186146</v>
@@ -16163,7 +16163,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.635285787373534</v>
+        <v>1.594697360535035</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.211258939455283</v>
@@ -16252,7 +16252,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.640123092479598</v>
+        <v>1.590399103187783</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.697559114746777</v>
@@ -16341,7 +16341,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.634671633222332</v>
+        <v>1.584397384974543</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.473499324321023</v>
@@ -16430,7 +16430,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.643568883685933</v>
+        <v>1.592494206016491</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.180183888546078</v>
@@ -16519,7 +16519,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.652220926721451</v>
+        <v>1.602250108252961</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.082526781155689</v>
@@ -16608,7 +16608,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.652581765971932</v>
+        <v>1.604420084672118</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.536877502704509</v>
@@ -16697,7 +16697,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653467248804439</v>
+        <v>1.602104698373555</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.415071953286978</v>
@@ -16786,7 +16786,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.659360115142117</v>
+        <v>1.609957283231034</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.05988447024741</v>
@@ -16875,7 +16875,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.66671124358235</v>
+        <v>1.611245835513266</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.986876006418873</v>
@@ -16964,7 +16964,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663686480464122</v>
+        <v>1.614968349367353</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.897232715933139</v>
@@ -17053,7 +17053,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673283903339702</v>
+        <v>1.625527742445239</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.569338031650136</v>
@@ -17142,7 +17142,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.669765216983651</v>
+        <v>1.625117462860943</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.906625651548729</v>
@@ -17231,7 +17231,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682364665928135</v>
+        <v>1.637035602568111</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.02961203941024</v>
@@ -17320,7 +17320,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.68336479261027</v>
+        <v>1.642854221401528</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.015268982814503</v>
@@ -17409,7 +17409,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.670435167660125</v>
+        <v>1.62759117932969</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.662565940753163</v>
@@ -17498,7 +17498,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.670144094322511</v>
+        <v>1.62061139822934</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.855801295361799</v>
@@ -17587,7 +17587,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.676694502916707</v>
+        <v>1.627016227182186</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.755385426610988</v>
@@ -17676,7 +17676,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.681375204684435</v>
+        <v>1.628812255201643</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.525389171367141</v>
@@ -17765,7 +17765,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.685298765410597</v>
+        <v>1.626080382181577</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.290572937241322</v>
@@ -17854,7 +17854,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.682292973943691</v>
+        <v>1.619064247783087</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.919862985508715</v>
@@ -17943,7 +17943,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.673442023079873</v>
+        <v>1.613540540005925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.344727846747543</v>
@@ -18032,7 +18032,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.665790129555197</v>
+        <v>1.613324563234261</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.561227029411777</v>
@@ -18121,7 +18121,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.666636807725528</v>
+        <v>1.614782387858084</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.187776172874763</v>
@@ -18210,7 +18210,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660526309330727</v>
+        <v>1.613967591178966</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.098876333080987</v>
@@ -18299,7 +18299,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.653675119585955</v>
+        <v>1.608324653435938</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.464428378551992</v>
@@ -18388,7 +18388,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.654771300609512</v>
+        <v>1.60335162839294</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.978031672234714</v>
@@ -18477,7 +18477,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650675377821922</v>
+        <v>1.601867812430489</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.631903089161356</v>
@@ -18566,7 +18566,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.641932469939836</v>
+        <v>1.587340659542834</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.192626799158871</v>
@@ -18655,7 +18655,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.637202168471938</v>
+        <v>1.581462749748618</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.499233844713043</v>
@@ -18744,7 +18744,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.634382325435641</v>
+        <v>1.584295224061292</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.467016553705769</v>
@@ -18833,7 +18833,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632257380522924</v>
+        <v>1.583051799096018</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.451753771172503</v>
@@ -18922,7 +18922,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622694754056281</v>
+        <v>1.575762331336502</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.392959850757927</v>
@@ -19011,7 +19011,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.61696020058211</v>
+        <v>1.568344030130236</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.306972454728664</v>
@@ -19100,7 +19100,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.610502690724678</v>
+        <v>1.56689215428127</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.035609493303585</v>
@@ -19189,7 +19189,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609859916682514</v>
+        <v>1.569450646738942</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.12504752326844</v>
@@ -19475,7 +19475,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.733709285520938</v>
+        <v>1.726649148469522</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.541032473839755</v>
@@ -19564,7 +19564,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.733190525369529</v>
+        <v>1.720494726303699</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.081219627824635</v>
@@ -19653,7 +19653,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.735869699202833</v>
+        <v>1.718303661025655</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.306774258795207</v>
@@ -19742,7 +19742,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.731867509641629</v>
+        <v>1.717104935222056</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.235142563398317</v>
@@ -19831,7 +19831,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.717220751246655</v>
+        <v>1.711094338044881</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.496574259527323</v>
@@ -19920,7 +19920,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.718710935519153</v>
+        <v>1.711756948270344</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.36755285770146</v>
@@ -20009,7 +20009,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.719533813197303</v>
+        <v>1.715851913046718</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.42377738768444</v>
@@ -20098,7 +20098,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.721551056473052</v>
+        <v>1.716216089282735</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.570831376927206</v>
@@ -20187,7 +20187,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.734634589755479</v>
+        <v>1.731277601758265</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.782493090705647</v>
@@ -20276,7 +20276,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.733771991222151</v>
+        <v>1.731011353680736</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.624767269178071</v>
@@ -20365,7 +20365,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.734620280912943</v>
+        <v>1.725322211422592</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.512943697933842</v>
@@ -20454,7 +20454,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.723445574771909</v>
+        <v>1.717950668552058</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.455687139193944</v>
@@ -20543,7 +20543,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.734003178082523</v>
+        <v>1.724815943609088</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.486889483032678</v>
@@ -20632,7 +20632,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.741799460496736</v>
+        <v>1.733046281387444</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.685757302647172</v>
@@ -20721,7 +20721,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.726615224892134</v>
+        <v>1.710333332397884</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.504270027439737</v>
@@ -20810,7 +20810,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.711515904271299</v>
+        <v>1.703558081194286</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.364407294802667</v>
@@ -20899,7 +20899,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.713636944179417</v>
+        <v>1.711319082919162</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.450258694775732</v>
@@ -20988,7 +20988,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.718008657802919</v>
+        <v>1.720038535460121</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.342370316390898</v>
@@ -21077,7 +21077,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.716607442682794</v>
+        <v>1.719643839429369</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.151509056718032</v>
@@ -21166,7 +21166,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.732397486228288</v>
+        <v>1.733676007250841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.559349033755466</v>
@@ -21255,7 +21255,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.718927951624432</v>
+        <v>1.717760124072309</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.331365697874481</v>
@@ -21344,7 +21344,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.714607536639972</v>
+        <v>1.70906165313682</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.948799216617956</v>
@@ -21433,7 +21433,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722176911404458</v>
+        <v>1.720002574063666</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.406615968023418</v>
@@ -21522,7 +21522,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.725723988610585</v>
+        <v>1.725020640739892</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.51061398005118</v>
@@ -21611,7 +21611,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.730951998912318</v>
+        <v>1.730989948774912</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.134775205753208</v>
@@ -21700,7 +21700,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.741926672892775</v>
+        <v>1.743627068990627</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.006872525763713</v>
@@ -21789,7 +21789,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737185133303162</v>
+        <v>1.740803488676464</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.301991051028299</v>
@@ -21878,7 +21878,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.726389835241461</v>
+        <v>1.733114636322971</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.141691699649773</v>
@@ -21967,7 +21967,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.711048792207087</v>
+        <v>1.723701099780983</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.99852947398224</v>
@@ -22056,7 +22056,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.727202832395131</v>
+        <v>1.744989148859072</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.983281325228317</v>
@@ -22145,7 +22145,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.740061714912027</v>
+        <v>1.757197460630546</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.944395345769283</v>
@@ -22234,7 +22234,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.736026982731708</v>
+        <v>1.743665943233234</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.536234642805482</v>
@@ -22323,7 +22323,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.73359362162655</v>
+        <v>1.736841190003803</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.450627429227528</v>
@@ -22412,7 +22412,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.730574868819786</v>
+        <v>1.731974525306981</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.502087651091129</v>
@@ -22501,7 +22501,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.721188896441878</v>
+        <v>1.722042285685563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.366694326442422</v>
@@ -22590,7 +22590,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.735045793816915</v>
+        <v>1.737227385909963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.741012645175889</v>
@@ -22679,7 +22679,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.734799462869268</v>
+        <v>1.738180270787186</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.6815952854755</v>
@@ -22768,7 +22768,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729729886870158</v>
+        <v>1.736400802210394</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.67699574962977</v>
@@ -22857,7 +22857,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.701063395829428</v>
+        <v>1.698863167162305</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.816594776768476</v>
@@ -22946,7 +22946,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.693407618142955</v>
+        <v>1.693063335113192</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.172231390522302</v>
@@ -23035,7 +23035,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687870140521934</v>
+        <v>1.684322517095898</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.987969077695458</v>
@@ -23124,7 +23124,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688733635749009</v>
+        <v>1.684529812013219</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.701129234466179</v>
@@ -23410,7 +23410,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.219272826401872</v>
+        <v>1.195914640682826</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.358576181093744</v>
@@ -23499,7 +23499,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.219312932883852</v>
+        <v>1.193255888494966</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.208279626923409</v>
@@ -23588,7 +23588,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.22227674696464</v>
+        <v>1.199928622391647</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.183132776505679</v>
@@ -23677,7 +23677,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.222162251035322</v>
+        <v>1.200407811176518</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.349892955896874</v>
@@ -23766,7 +23766,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.218696147682092</v>
+        <v>1.193321947898948</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.154763780835039</v>
@@ -23855,7 +23855,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.228964022432953</v>
+        <v>1.209711703356037</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.120981555931358</v>
@@ -23944,7 +23944,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.240737333928371</v>
+        <v>1.223104317326547</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.277690147390669</v>
@@ -24033,7 +24033,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.23534036327845</v>
+        <v>1.21593026106969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.463512648643521</v>
@@ -24122,7 +24122,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.23066089218213</v>
+        <v>1.209191936669008</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.396811251279094</v>
@@ -24211,7 +24211,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.226601340966125</v>
+        <v>1.204311135337323</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.290481664976829</v>
@@ -24300,7 +24300,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.231498480232977</v>
+        <v>1.207064176297893</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.276376310890695</v>
@@ -24389,7 +24389,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.219510929454678</v>
+        <v>1.196281079897052</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.266420017304924</v>
@@ -24478,7 +24478,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.225033944688554</v>
+        <v>1.205333246099095</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.328616357796638</v>
@@ -24567,7 +24567,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.219809863073827</v>
+        <v>1.198570630945939</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.319565869586392</v>
@@ -24656,7 +24656,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.229834672214656</v>
+        <v>1.209801776954613</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.26040414329797</v>
@@ -24745,7 +24745,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.245408151935966</v>
+        <v>1.224504850737092</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.233852408220341</v>
@@ -24834,7 +24834,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.253485234401015</v>
+        <v>1.23512427309566</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.185501772830127</v>
@@ -24923,7 +24923,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.262762745672493</v>
+        <v>1.244491362075637</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.207962901722197</v>
@@ -25012,7 +25012,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.268153735602511</v>
+        <v>1.251999746536016</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.176157035847583</v>
@@ -25101,7 +25101,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.277778025766248</v>
+        <v>1.260928691801198</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.234261033391221</v>
@@ -25190,7 +25190,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.282122662588099</v>
+        <v>1.266408931914647</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.148655249598362</v>
@@ -25279,7 +25279,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.274355874049392</v>
+        <v>1.257768853965352</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.106547029121941</v>
@@ -25368,7 +25368,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.286274032778064</v>
+        <v>1.273085477303896</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.162703432028634</v>
@@ -25457,7 +25457,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.29036072333987</v>
+        <v>1.278178828105401</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.145513640682294</v>
@@ -25546,7 +25546,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.299573995886898</v>
+        <v>1.289538001529043</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.170296635818962</v>
@@ -25635,7 +25635,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.324693116388663</v>
+        <v>1.31646128214639</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.141002420596883</v>
@@ -25724,7 +25724,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.311586364862593</v>
+        <v>1.300683590068956</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.318339933143076</v>
@@ -25813,7 +25813,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.301731080699282</v>
+        <v>1.289652681611165</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.211692335957175</v>
@@ -25902,7 +25902,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.306796155132601</v>
+        <v>1.295580803807024</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.219870926433638</v>
@@ -25991,7 +25991,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.296211398467315</v>
+        <v>1.285067793560687</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.282918938564804</v>
@@ -26080,7 +26080,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.284513841339743</v>
+        <v>1.274322475969258</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.281350298555328</v>
@@ -26169,7 +26169,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.2719653328042</v>
+        <v>1.259461740049123</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.257721751510842</v>
@@ -26258,7 +26258,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.263599824608765</v>
+        <v>1.248139330135687</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.435098019803322</v>
@@ -26347,7 +26347,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.259854248797163</v>
+        <v>1.242483896042806</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.394593028885776</v>
@@ -26436,7 +26436,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.262822486527943</v>
+        <v>1.244227043203752</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.496244337953241</v>
@@ -26525,7 +26525,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.260833876172544</v>
+        <v>1.239788228838581</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.301904249857193</v>
@@ -26614,7 +26614,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.242052465295564</v>
+        <v>1.222780039446589</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.365363787404788</v>
@@ -26703,7 +26703,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.235232418435736</v>
+        <v>1.215059572265102</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.40771746361363</v>
@@ -26792,7 +26792,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.235122640678239</v>
+        <v>1.215208067648165</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.385636838769248</v>
@@ -26881,7 +26881,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.234923501190004</v>
+        <v>1.213512031316627</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.302543999654045</v>
@@ -26970,7 +26970,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.23414546975672</v>
+        <v>1.211890407439079</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.263288420390524</v>
@@ -27059,7 +27059,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.241755443688389</v>
+        <v>1.219417776580189</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.334613534233433</v>
